--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFF5561-62FF-4980-A6CA-1882D95AB0C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9847F7-94E4-4A71-94C9-9A80A5EAAB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -241,9 +241,6 @@
     <t>will upload later</t>
   </si>
   <si>
-    <t>2:28.39</t>
-  </si>
-  <si>
     <t>2:17.13</t>
   </si>
   <si>
@@ -451,13 +448,7 @@
     <t>Jo Cocco</t>
   </si>
   <si>
-    <t>2:06.00</t>
-  </si>
-  <si>
     <t>2:37.00</t>
-  </si>
-  <si>
-    <t>2:39.00</t>
   </si>
   <si>
     <t>https://www.facebook.com/events/2558750947697073/permalink/2564295957142572/</t>
@@ -619,7 +610,16 @@
     <t>https://www.facebook.com/events/2558750947697073/permalink/2564590157113152/</t>
   </si>
   <si>
-    <t>2:27.00</t>
+    <t>2:39.96</t>
+  </si>
+  <si>
+    <t>2:06.95</t>
+  </si>
+  <si>
+    <t>2:27.97</t>
+  </si>
+  <si>
+    <t>2:27.99</t>
   </si>
 </sst>
 </file>
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -895,9 +895,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -943,8 +940,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -953,6 +948,14 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1176,8 +1179,8 @@
   </sheetPr>
   <dimension ref="A1:L1050"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" activeCellId="2" sqref="G30 I30 J30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1275,7 +1278,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1310,7 +1313,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1361,7 +1364,7 @@
         <v>16.329999999999998</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75">
@@ -1378,7 +1381,7 @@
         <v>14.97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F7" s="25">
         <v>13.2</v>
@@ -1404,7 +1407,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>31</v>
@@ -1413,7 +1416,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1431,7 +1434,7 @@
         <v>14.98</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75">
@@ -1439,7 +1442,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>31</v>
@@ -1448,7 +1451,7 @@
         <v>16.63</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" s="21">
         <v>18.3</v>
@@ -1466,7 +1469,7 @@
         <v>15.75</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -1483,7 +1486,7 @@
         <v>17.7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" s="21">
         <v>14.08</v>
@@ -1501,7 +1504,7 @@
         <v>17.89</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -1536,7 +1539,7 @@
         <v>21.87</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -1569,7 +1572,7 @@
         <v>21.97</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -1577,7 +1580,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>31</v>
@@ -1602,15 +1605,15 @@
         <v>22.04</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
       <c r="A14" s="23">
         <v>11</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>97</v>
+      <c r="B14" s="54" t="s">
+        <v>96</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>31</v>
@@ -1619,7 +1622,7 @@
         <v>21.21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F14" s="21">
         <v>18.43</v>
@@ -1637,7 +1640,7 @@
         <v>21.62</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -1645,7 +1648,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>31</v>
@@ -1654,7 +1657,7 @@
         <v>21.98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F15" s="21">
         <v>24.1</v>
@@ -1672,7 +1675,7 @@
         <v>29.96</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -1680,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>20</v>
@@ -1689,7 +1692,7 @@
         <v>22.85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F16" s="21">
         <v>19.38</v>
@@ -1707,24 +1710,24 @@
         <v>46.02</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="60" customFormat="1" ht="12.75">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="59" customFormat="1" ht="12.75">
       <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>116</v>
+      <c r="B17" s="48" t="s">
+        <v>115</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="64">
+      <c r="D17" s="61">
         <v>26.01</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F17" s="21">
         <v>21.03</v>
@@ -1742,7 +1745,7 @@
         <v>29.2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1750,7 +1753,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>31</v>
@@ -1775,7 +1778,7 @@
         <v>27.36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1783,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
@@ -1810,7 +1813,7 @@
         <v>28.22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1818,7 +1821,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>20</v>
@@ -1843,7 +1846,7 @@
         <v>37.68</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1851,7 +1854,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>65</v>
@@ -1876,7 +1879,7 @@
         <v>28.01</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1884,7 +1887,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>31</v>
@@ -1909,7 +1912,7 @@
         <v>30.93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1917,7 +1920,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>20</v>
@@ -1926,7 +1929,7 @@
         <v>28.66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F23" s="21">
         <v>29.45</v>
@@ -1944,7 +1947,7 @@
         <v>27.97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1952,7 +1955,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>65</v>
@@ -1961,7 +1964,7 @@
         <v>30.91</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F24" s="21">
         <v>32.950000000000003</v>
@@ -1979,7 +1982,7 @@
         <v>32.19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -1987,7 +1990,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>65</v>
@@ -2012,7 +2015,7 @@
         <v>30.67</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -2020,7 +2023,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>31</v>
@@ -2044,7 +2047,7 @@
         <v>34.72</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2052,7 +2055,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>65</v>
@@ -2061,7 +2064,7 @@
         <v>34.840000000000003</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F27" s="19">
         <v>30.53</v>
@@ -2079,7 +2082,7 @@
         <v>31.2</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2087,7 +2090,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -2114,7 +2117,7 @@
         <v>31.64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -2122,7 +2125,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>65</v>
@@ -2149,7 +2152,7 @@
         <v>39.840000000000003</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -2157,12 +2160,12 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="64">
         <v>40.85</v>
       </c>
       <c r="E30" s="30"/>
@@ -2181,8 +2184,8 @@
       <c r="J30" s="27">
         <v>40.14</v>
       </c>
-      <c r="K30" s="66" t="s">
-        <v>169</v>
+      <c r="K30" s="63" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -2190,32 +2193,32 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="40">
-        <v>78</v>
+      <c r="D31" s="27">
+        <v>78.7</v>
       </c>
       <c r="E31" s="30"/>
       <c r="F31" s="31">
         <v>70</v>
       </c>
       <c r="G31" s="27">
-        <v>100</v>
+        <v>100.48</v>
       </c>
       <c r="H31" s="27">
-        <v>61</v>
+        <v>61.06</v>
       </c>
       <c r="I31" s="27">
-        <v>73</v>
+        <v>73.34</v>
       </c>
       <c r="J31" s="27">
-        <v>92</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>170</v>
+        <v>92.77</v>
+      </c>
+      <c r="K31" s="63" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -2223,7 +2226,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>31</v>
@@ -2248,7 +2251,7 @@
         <v>41</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
@@ -10570,9 +10573,10 @@
     <hyperlink ref="K15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="K16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="K30" r:id="rId14" xr:uid="{06F40304-5D98-4656-ADBB-B8B394F3F578}"/>
+    <hyperlink ref="K31" r:id="rId15" xr:uid="{BA00C6A6-9C93-4F67-994D-94DC81792154}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -10584,7 +10588,7 @@
   <dimension ref="A1:L1034"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10682,7 +10686,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10717,7 +10721,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10787,7 +10791,7 @@
         <v>35.44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F7" s="19">
         <v>46.11</v>
@@ -10822,7 +10826,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -10840,7 +10844,7 @@
         <v>36.06</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="12.75">
@@ -10880,7 +10884,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>31</v>
@@ -10904,7 +10908,7 @@
         <v>53.96</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="12.75">
@@ -10912,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
@@ -10936,7 +10940,7 @@
         <v>39.89</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -10968,7 +10972,7 @@
         <v>44.33</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -10976,7 +10980,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
@@ -10992,7 +10996,7 @@
         <v>49.21</v>
       </c>
       <c r="H13" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I13" s="19">
         <v>47.5</v>
@@ -11001,7 +11005,7 @@
         <v>50.96</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -11009,12 +11013,12 @@
         <v>11</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="65">
+      <c r="D14" s="62">
         <v>49.41</v>
       </c>
       <c r="E14" s="20"/>
@@ -11025,7 +11029,7 @@
         <v>39.68</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I14" s="19">
         <v>56.49</v>
@@ -11034,7 +11038,7 @@
         <v>51.9</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -11042,32 +11046,32 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>133</v>
-      </c>
       <c r="I15" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -11075,32 +11079,32 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="61" t="s">
-        <v>195</v>
+      <c r="D16" s="65" t="s">
+        <v>194</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="H16" s="60" t="s">
+        <v>193</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>140</v>
-      </c>
-      <c r="G16" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="H16" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
@@ -11110,7 +11114,7 @@
       <c r="D17" s="19"/>
       <c r="E17" s="28"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
@@ -17478,8 +17482,8 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16:J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -17577,7 +17581,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17612,7 +17616,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17647,7 +17651,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>46</v>
@@ -17682,7 +17686,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -17713,26 +17717,26 @@
       <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="G8" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="H8" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="I8" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="J8" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="17" t="s">
         <v>74</v>
-      </c>
-      <c r="K8" s="17" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1">
@@ -17740,31 +17744,31 @@
         <v>6</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D9" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="G9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="I9" s="27" t="s">
+      <c r="J9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K9" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="J9" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75">
@@ -17772,35 +17776,35 @@
         <v>7</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="H10" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="H10" s="19" t="s">
+      <c r="I10" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="J10" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="L10" s="17" t="s">
         <v>85</v>
-      </c>
-      <c r="L10" s="17" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
@@ -17808,31 +17812,31 @@
         <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="19" t="s">
-        <v>99</v>
-      </c>
       <c r="G11" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="H11" s="19" t="s">
+      <c r="I11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
@@ -17840,31 +17844,31 @@
         <v>9</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="G12" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="19" t="s">
-        <v>112</v>
-      </c>
       <c r="I12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J12" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -17872,32 +17876,32 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>121</v>
-      </c>
       <c r="H13" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="I13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="6" t="s">
         <v>123</v>
-      </c>
-      <c r="I13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -17905,7 +17909,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>31</v>
@@ -17918,19 +17922,19 @@
         <v>41</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I14" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -24300,17 +24304,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="62" t="s">
+      <c r="A1" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
       <c r="F1" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24318,61 +24322,61 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:12" ht="12.75">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" thickBot="1">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="45" t="s">
-        <v>175</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>176</v>
-      </c>
-      <c r="F3" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
+      <c r="D3" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>174</v>
+      </c>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="56">
+      <c r="A4" s="55">
         <v>1</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="57">
         <v>26</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" s="59" t="s">
-        <v>174</v>
+      <c r="E4" s="55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -24380,23 +24384,23 @@
       <c r="J4" s="27"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="56">
+      <c r="A5" s="55">
         <v>2</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>178</v>
-      </c>
-      <c r="C5" s="56" t="s">
+      <c r="B5" s="56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="57">
         <v>27</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="F5" s="59" t="s">
-        <v>174</v>
+      <c r="E5" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -24404,23 +24408,23 @@
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="56">
+      <c r="A6" s="55">
         <v>3</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="57">
         <v>29</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="F6" s="59" t="s">
-        <v>174</v>
+      <c r="E6" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -24428,21 +24432,21 @@
       <c r="J6" s="27"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="56">
+      <c r="A7" s="55">
         <v>4</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="56" t="s">
+      <c r="B7" s="56" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="58">
+      <c r="D7" s="57">
         <v>33</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="59" t="s">
-        <v>174</v>
+      <c r="E7" s="56"/>
+      <c r="F7" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -24450,23 +24454,23 @@
       <c r="J7" s="27"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="56">
+      <c r="A8" s="55">
         <v>5</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="58">
+      <c r="D8" s="57">
         <v>41</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="59" t="s">
-        <v>174</v>
+      <c r="E8" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -24474,21 +24478,21 @@
       <c r="J8" s="27"/>
     </row>
     <row r="9" spans="1:12" ht="26.25" thickBot="1">
-      <c r="A9" s="56">
+      <c r="A9" s="55">
         <v>6</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C9" s="56" t="s">
+      <c r="B9" s="56" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="58">
+      <c r="D9" s="57">
         <v>47</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="59" t="s">
-        <v>174</v>
+      <c r="E9" s="56"/>
+      <c r="F9" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -24496,23 +24500,23 @@
       <c r="J9" s="27"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="56">
+      <c r="A10" s="55">
         <v>7</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="56" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="57">
+        <v>55</v>
+      </c>
+      <c r="E10" s="55" t="s">
         <v>182</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="58">
-        <v>55</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="F10" s="59" t="s">
-        <v>174</v>
+      <c r="F10" s="58" t="s">
+        <v>171</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -24520,24 +24524,24 @@
       <c r="J10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A11" s="48"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="51"/>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="54"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>

--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9847F7-94E4-4A71-94C9-9A80A5EAAB9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886BEF1-285C-4DDA-9B0A-F3C4114AF796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -953,11 +953,11 @@
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -10587,8 +10587,8 @@
   </sheetPr>
   <dimension ref="A1:L1034"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10913,7 +10913,7 @@
     </row>
     <row r="11" spans="1:12" ht="12.75">
       <c r="A11" s="23">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="16" t="s">
         <v>96</v>
@@ -17482,7 +17482,7 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16:J17"/>
     </sheetView>
   </sheetViews>
@@ -17717,7 +17717,7 @@
       <c r="C8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="68" t="s">
+      <c r="D8" s="66" t="s">
         <v>195</v>
       </c>
       <c r="F8" s="19" t="s">
@@ -24307,12 +24307,12 @@
       <c r="A1" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
       <c r="F1" s="6" t="s">
         <v>171</v>
       </c>

--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5886BEF1-285C-4DDA-9B0A-F3C4114AF796}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A6B6-01F8-4F1A-9C60-0BCA8BCEA31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -379,9 +379,6 @@
     <t>https://www.facebook.com/events/1618332754973681/permalink/1622571537883136/</t>
   </si>
   <si>
-    <t>Deansie Brady</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/events/2558750947697073/permalink/2563272783911556/</t>
   </si>
   <si>
@@ -621,6 +618,9 @@
   <si>
     <t>2:27.99</t>
   </si>
+  <si>
+    <t>Jamie Brady (Deansie)</t>
+  </si>
 </sst>
 </file>
 
@@ -794,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -956,6 +956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
@@ -1180,7 +1181,7 @@
   <dimension ref="A1:L1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1278,7 +1279,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1313,7 +1314,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1381,7 +1382,7 @@
         <v>14.97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="25">
         <v>13.2</v>
@@ -1416,7 +1417,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1451,7 +1452,7 @@
         <v>16.63</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F9" s="21">
         <v>18.3</v>
@@ -1486,7 +1487,7 @@
         <v>17.7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F10" s="21">
         <v>14.08</v>
@@ -1539,7 +1540,7 @@
         <v>21.87</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="12.75">
@@ -1572,7 +1573,7 @@
         <v>21.97</v>
       </c>
       <c r="K12" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="12.75">
@@ -1580,7 +1581,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>31</v>
@@ -1605,7 +1606,7 @@
         <v>22.04</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -1622,7 +1623,7 @@
         <v>21.21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F14" s="21">
         <v>18.43</v>
@@ -1640,7 +1641,7 @@
         <v>21.62</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -1657,7 +1658,7 @@
         <v>21.98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F15" s="21">
         <v>24.1</v>
@@ -1675,7 +1676,7 @@
         <v>29.96</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -1692,7 +1693,7 @@
         <v>22.85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F16" s="21">
         <v>19.38</v>
@@ -1710,15 +1711,15 @@
         <v>46.02</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="59" customFormat="1" ht="12.75">
       <c r="A17" s="23">
         <v>14</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>115</v>
+      <c r="B17" s="67" t="s">
+        <v>195</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>20</v>
@@ -1727,7 +1728,7 @@
         <v>26.01</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="21">
         <v>21.03</v>
@@ -1745,7 +1746,7 @@
         <v>29.2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1753,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>31</v>
@@ -1778,7 +1779,7 @@
         <v>27.36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1786,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
@@ -1813,7 +1814,7 @@
         <v>28.22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1821,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>20</v>
@@ -1846,7 +1847,7 @@
         <v>37.68</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1854,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>65</v>
@@ -1879,7 +1880,7 @@
         <v>28.01</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1887,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>31</v>
@@ -1912,7 +1913,7 @@
         <v>30.93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1920,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>20</v>
@@ -1929,7 +1930,7 @@
         <v>28.66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F23" s="21">
         <v>29.45</v>
@@ -1947,7 +1948,7 @@
         <v>27.97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1955,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>65</v>
@@ -1964,7 +1965,7 @@
         <v>30.91</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F24" s="21">
         <v>32.950000000000003</v>
@@ -1982,7 +1983,7 @@
         <v>32.19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -2015,7 +2016,7 @@
         <v>30.67</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -2023,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>31</v>
@@ -2047,7 +2048,7 @@
         <v>34.72</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2055,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>65</v>
@@ -2064,7 +2065,7 @@
         <v>34.840000000000003</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F27" s="19">
         <v>30.53</v>
@@ -2082,7 +2083,7 @@
         <v>31.2</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2090,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -2117,7 +2118,7 @@
         <v>31.64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -2125,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>65</v>
@@ -2152,7 +2153,7 @@
         <v>39.840000000000003</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -2160,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>31</v>
@@ -2185,7 +2186,7 @@
         <v>40.14</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -2193,7 +2194,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>31</v>
@@ -2218,7 +2219,7 @@
         <v>92.77</v>
       </c>
       <c r="K31" s="63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -2226,7 +2227,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>31</v>
@@ -2251,7 +2252,7 @@
         <v>41</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
@@ -10588,7 +10589,7 @@
   <dimension ref="A1:L1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10686,7 +10687,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10721,7 +10722,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10791,7 +10792,7 @@
         <v>35.44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F7" s="19">
         <v>46.11</v>
@@ -10826,7 +10827,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -11012,8 +11013,8 @@
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>115</v>
+      <c r="B14" s="67" t="s">
+        <v>195</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -11029,7 +11030,7 @@
         <v>39.68</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I14" s="19">
         <v>56.49</v>
@@ -11038,7 +11039,7 @@
         <v>51.9</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -11046,32 +11047,32 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>132</v>
-      </c>
       <c r="I15" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="6" t="s">
         <v>135</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -11079,23 +11080,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G16" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="H16" s="60" t="s">
         <v>192</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>193</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>92</v>
@@ -11104,7 +11105,7 @@
         <v>92</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
@@ -17581,7 +17582,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17616,7 +17617,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17651,7 +17652,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>46</v>
@@ -17686,7 +17687,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -17718,7 +17719,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>69</v>
@@ -17882,17 +17883,17 @@
         <v>20</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E13" s="28"/>
       <c r="F13" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="G13" s="19" t="s">
-        <v>120</v>
-      </c>
       <c r="H13" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I13" s="27" t="s">
         <v>92</v>
@@ -17901,7 +17902,7 @@
         <v>92</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -17909,7 +17910,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>31</v>
@@ -17922,7 +17923,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>92</v>
@@ -17934,7 +17935,7 @@
         <v>92</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -24305,16 +24306,16 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="B1" s="67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="6" t="s">
-        <v>171</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24344,13 +24345,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>173</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>174</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
@@ -24373,10 +24374,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -24388,7 +24389,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>31</v>
@@ -24397,10 +24398,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -24421,10 +24422,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -24436,7 +24437,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>20</v>
@@ -24446,7 +24447,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -24458,7 +24459,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>20</v>
@@ -24467,10 +24468,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -24482,7 +24483,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>20</v>
@@ -24492,7 +24493,7 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -24504,7 +24505,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>65</v>
@@ -24513,10 +24514,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>

--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9618A6B6-01F8-4F1A-9C60-0BCA8BCEA31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36708D-89DF-4F8B-8F86-0670CD9BEB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -10588,7 +10588,7 @@
   </sheetPr>
   <dimension ref="A1:L1034"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -24287,8 +24287,8 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -24392,7 +24392,7 @@
         <v>174</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D5" s="57">
         <v>27</v>

--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE36708D-89DF-4F8B-8F86-0670CD9BEB32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622720A2-A69B-436B-8717-FBDC8042F278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
@@ -409,9 +409,6 @@
     <t>Jeremy Duehring</t>
   </si>
   <si>
-    <t>장준호</t>
-  </si>
-  <si>
     <t>Jae Park</t>
   </si>
   <si>
@@ -620,6 +617,9 @@
   </si>
   <si>
     <t>Jamie Brady (Deansie)</t>
+  </si>
+  <si>
+    <t>Jang Junho (장준호)</t>
   </si>
 </sst>
 </file>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:L1050"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1279,7 +1279,7 @@
         <v>12.74</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F4" s="21">
         <v>14.5</v>
@@ -1314,7 +1314,7 @@
         <v>14.46</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="21">
         <v>13.82</v>
@@ -1382,7 +1382,7 @@
         <v>14.97</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="25">
         <v>13.2</v>
@@ -1417,7 +1417,7 @@
         <v>15.23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F8" s="21">
         <v>14.64</v>
@@ -1452,7 +1452,7 @@
         <v>16.63</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="21">
         <v>18.3</v>
@@ -1487,7 +1487,7 @@
         <v>17.7</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F10" s="21">
         <v>14.08</v>
@@ -1606,7 +1606,7 @@
         <v>22.04</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12.75">
@@ -1623,7 +1623,7 @@
         <v>21.21</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F14" s="21">
         <v>18.43</v>
@@ -1641,7 +1641,7 @@
         <v>21.62</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -1658,7 +1658,7 @@
         <v>21.98</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F15" s="21">
         <v>24.1</v>
@@ -1676,7 +1676,7 @@
         <v>29.96</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -1693,7 +1693,7 @@
         <v>22.85</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F16" s="21">
         <v>19.38</v>
@@ -1711,7 +1711,7 @@
         <v>46.02</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:11" s="59" customFormat="1" ht="12.75">
@@ -1719,7 +1719,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C17" s="37" t="s">
         <v>20</v>
@@ -1728,7 +1728,7 @@
         <v>26.01</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F17" s="21">
         <v>21.03</v>
@@ -1746,7 +1746,7 @@
         <v>29.2</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="12.75">
@@ -1754,7 +1754,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>31</v>
@@ -1779,7 +1779,7 @@
         <v>27.36</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="12.75">
@@ -1787,7 +1787,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>31</v>
@@ -1814,7 +1814,7 @@
         <v>28.22</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="12.75">
@@ -1822,7 +1822,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>20</v>
@@ -1847,7 +1847,7 @@
         <v>37.68</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="12.75">
@@ -1855,7 +1855,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C21" s="22" t="s">
         <v>65</v>
@@ -1880,7 +1880,7 @@
         <v>28.01</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="12.75">
@@ -1888,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>31</v>
@@ -1913,7 +1913,7 @@
         <v>30.93</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="12.75">
@@ -1921,7 +1921,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>20</v>
@@ -1930,7 +1930,7 @@
         <v>28.66</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F23" s="21">
         <v>29.45</v>
@@ -1948,7 +1948,7 @@
         <v>27.97</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="12.75">
@@ -1956,7 +1956,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>65</v>
@@ -1965,7 +1965,7 @@
         <v>30.91</v>
       </c>
       <c r="E24" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F24" s="21">
         <v>32.950000000000003</v>
@@ -1983,7 +1983,7 @@
         <v>32.19</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="12.75">
@@ -2016,7 +2016,7 @@
         <v>30.67</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="12.75">
@@ -2024,7 +2024,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>31</v>
@@ -2048,7 +2048,7 @@
         <v>34.72</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="12.75">
@@ -2056,7 +2056,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C27" s="14" t="s">
         <v>65</v>
@@ -2065,7 +2065,7 @@
         <v>34.840000000000003</v>
       </c>
       <c r="E27" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F27" s="19">
         <v>30.53</v>
@@ -2083,7 +2083,7 @@
         <v>31.2</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="12.75">
@@ -2091,7 +2091,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C28" s="14" t="s">
         <v>31</v>
@@ -2118,7 +2118,7 @@
         <v>31.64</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="12.75">
@@ -2126,7 +2126,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="23" t="s">
         <v>65</v>
@@ -2153,7 +2153,7 @@
         <v>39.840000000000003</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="12.75">
@@ -2161,7 +2161,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="23" t="s">
         <v>31</v>
@@ -2186,7 +2186,7 @@
         <v>40.14</v>
       </c>
       <c r="K30" s="63" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="12.75">
@@ -2194,7 +2194,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C31" s="23" t="s">
         <v>31</v>
@@ -2219,7 +2219,7 @@
         <v>92.77</v>
       </c>
       <c r="K31" s="63" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="12.75">
@@ -2227,7 +2227,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C32" s="23" t="s">
         <v>31</v>
@@ -2252,7 +2252,7 @@
         <v>41</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="12.75">
@@ -10588,8 +10588,8 @@
   </sheetPr>
   <dimension ref="A1:L1034"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -10687,7 +10687,7 @@
         <v>25.73</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="19">
         <v>22.13</v>
@@ -10722,7 +10722,7 @@
         <v>27.32</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="19">
         <v>23.86</v>
@@ -10792,7 +10792,7 @@
         <v>35.44</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F7" s="19">
         <v>46.11</v>
@@ -10827,7 +10827,7 @@
         <v>37.28</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F8" s="19">
         <v>37.57</v>
@@ -11014,7 +11014,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>20</v>
@@ -11047,32 +11047,32 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="19" t="s">
+      <c r="H15" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="19" t="s">
-        <v>131</v>
-      </c>
       <c r="I15" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="J15" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="6" t="s">
         <v>134</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12.75">
@@ -11080,23 +11080,23 @@
         <v>13</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="23" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="65" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G16" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="H16" s="60" t="s">
         <v>191</v>
-      </c>
-      <c r="H16" s="60" t="s">
-        <v>192</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>92</v>
@@ -11105,7 +11105,7 @@
         <v>92</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75">
@@ -17582,7 +17582,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>22</v>
@@ -17617,7 +17617,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>34</v>
@@ -17652,7 +17652,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>46</v>
@@ -17687,7 +17687,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>56</v>
@@ -17719,7 +17719,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>69</v>
@@ -17910,7 +17910,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C14" s="23" t="s">
         <v>31</v>
@@ -17923,7 +17923,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H14" s="27" t="s">
         <v>92</v>
@@ -17935,7 +17935,7 @@
         <v>92</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="12.75">
@@ -24287,7 +24287,7 @@
   </sheetPr>
   <dimension ref="A1:L1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -24306,7 +24306,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="40" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1" s="68" t="s">
         <v>1</v>
@@ -24315,7 +24315,7 @@
       <c r="D1" s="69"/>
       <c r="E1" s="69"/>
       <c r="F1" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -24345,13 +24345,13 @@
         <v>7</v>
       </c>
       <c r="D3" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="F3" s="43" t="s">
         <v>172</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>173</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="45"/>
@@ -24374,10 +24374,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G4" s="27"/>
       <c r="H4" s="27"/>
@@ -24389,7 +24389,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="55" t="s">
         <v>65</v>
@@ -24398,10 +24398,10 @@
         <v>27</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F5" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G5" s="27"/>
       <c r="H5" s="27"/>
@@ -24422,10 +24422,10 @@
         <v>29</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G6" s="27"/>
       <c r="H6" s="27"/>
@@ -24437,7 +24437,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C7" s="55" t="s">
         <v>20</v>
@@ -24447,7 +24447,7 @@
       </c>
       <c r="E7" s="56"/>
       <c r="F7" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -24459,7 +24459,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C8" s="55" t="s">
         <v>20</v>
@@ -24468,10 +24468,10 @@
         <v>41</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F8" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -24483,7 +24483,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C9" s="55" t="s">
         <v>20</v>
@@ -24493,7 +24493,7 @@
       </c>
       <c r="E9" s="56"/>
       <c r="F9" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -24505,7 +24505,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C10" s="55" t="s">
         <v>65</v>
@@ -24514,10 +24514,10 @@
         <v>55</v>
       </c>
       <c r="E10" s="55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F10" s="58" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>

--- a/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
+++ b/data/2020-02-18/Senior Cubers Worldwide - Weekly Competition - 2020-02-18.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\WCA\scw-comp\data\2020-02-18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{622720A2-A69B-436B-8717-FBDC8042F278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{914A8A0E-C476-49EB-9D70-BC6D001440D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3x3x3" sheetId="1" r:id="rId1"/>
-    <sheet name="3x3x3 OH" sheetId="2" r:id="rId2"/>
+    <sheet name="OH" sheetId="2" r:id="rId2"/>
     <sheet name="5x5x5" sheetId="3" r:id="rId3"/>
     <sheet name="FMC" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -10589,7 +10589,7 @@
   <dimension ref="A1:L1034"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
